--- a/資料/学生情报.xlsx
+++ b/資料/学生情报.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\test-html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\test-html\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7308E5-8B62-4407-B1AD-259DD82C9318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF8D50-FB06-44B9-9690-E1556CE27237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="144">
   <si>
     <t>学生情報</t>
     <rPh sb="0" eb="2">
@@ -817,7 +817,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">姓名 </t>
+      <t>full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -827,12 +837,32 @@
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学号 &gt;</t>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like　□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男 □</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女 □</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大于 □ 小于 □ 等于 □</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>应用过滤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>过滤设定</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -859,7 +889,7 @@
         <charset val="128"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> &gt;</t>
+      <t>：</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,7 +916,7 @@
         <charset val="128"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> &gt;</t>
+      <t>：</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -913,50 +943,8 @@
         <charset val="128"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> &gt;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>full</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>like　□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男 □</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女 □</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大于 □ 小于 □ 等于 □</t>
+      <t>：</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -964,7 +952,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,8 +1096,15 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,6 +1132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1252,6 +1253,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,22 +1274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1900,15 +1903,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X51"/>
+  <dimension ref="A2:U63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:16" ht="32.4" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:16" ht="32.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1928,13 +1931,13 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:16" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1948,10 +1951,10 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1964,18 +1967,18 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2033,15 +2036,15 @@
       <c r="K10" s="6">
         <v>18</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2063,15 +2066,15 @@
       <c r="K11" s="6">
         <v>18</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2093,15 +2096,15 @@
       <c r="K12" s="6">
         <v>18</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2123,15 +2126,15 @@
       <c r="K13" s="6">
         <v>18</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2153,15 +2156,15 @@
       <c r="K14" s="6">
         <v>18</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -2183,15 +2186,15 @@
       <c r="K15" s="6">
         <v>18</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2213,15 +2216,15 @@
       <c r="K16" s="6">
         <v>18</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2243,15 +2246,15 @@
       <c r="K17" s="6">
         <v>18</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2273,15 +2276,15 @@
       <c r="K18" s="6">
         <v>18</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2303,15 +2306,15 @@
       <c r="K19" s="6">
         <v>18</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2333,15 +2336,15 @@
       <c r="K20" s="6">
         <v>18</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2363,15 +2366,15 @@
       <c r="K21" s="6">
         <v>18</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2393,15 +2396,15 @@
       <c r="K22" s="6">
         <v>18</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2423,15 +2426,15 @@
       <c r="K23" s="6">
         <v>18</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2453,22 +2456,22 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="32.4" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:16" ht="32.4">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2488,13 +2491,13 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:16" ht="33" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -2508,10 +2511,10 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:24" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="19.2" thickTop="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -2524,18 +2527,18 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2593,25 +2596,15 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-    </row>
-    <row r="38" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L37" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -2633,29 +2626,15 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="S38" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="T38" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="U38" s="35"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="32"/>
-    </row>
-    <row r="39" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L38" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2677,29 +2656,15 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="S39" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="T39" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="U39" s="35"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="32"/>
-    </row>
-    <row r="40" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L39" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2721,29 +2686,15 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="S40" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="T40" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="U40" s="34"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-    </row>
-    <row r="41" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L40" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2765,29 +2716,15 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="S41" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="T41" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="U41" s="35"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="32"/>
-    </row>
-    <row r="42" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2809,27 +2746,15 @@
       <c r="K42" s="6">
         <v>18</v>
       </c>
-      <c r="L42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="S42" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="32"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="L42" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2851,23 +2776,15 @@
       <c r="K43" s="6">
         <v>18</v>
       </c>
-      <c r="L43" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="L43" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2889,23 +2806,15 @@
       <c r="K44" s="6">
         <v>18</v>
       </c>
-      <c r="L44" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="L44" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2927,18 +2836,18 @@
       <c r="K45" s="6">
         <v>18</v>
       </c>
-      <c r="L45" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="L45" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2960,19 +2869,19 @@
       <c r="K46" s="6">
         <v>18</v>
       </c>
-      <c r="L46" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="R46" s="30"/>
+      <c r="L46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="R46" s="26"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2994,16 +2903,16 @@
       <c r="K47" s="6">
         <v>18</v>
       </c>
-      <c r="L47" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
+      <c r="L47" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3025,16 +2934,16 @@
       <c r="K48" s="6">
         <v>18</v>
       </c>
-      <c r="L48" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
+      <c r="L48" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3056,15 +2965,15 @@
       <c r="K49" s="6">
         <v>18</v>
       </c>
-      <c r="L49" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L49" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
@@ -3086,15 +2995,15 @@
       <c r="K50" s="6">
         <v>18</v>
       </c>
-      <c r="L50" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L50" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3116,39 +3025,139 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-    </row>
+      <c r="L51" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:16" ht="22.2">
+      <c r="A54" s="32"/>
+      <c r="B54" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+    </row>
+    <row r="55" spans="1:16" ht="18.600000000000001" thickBot="1">
+      <c r="A55" s="32"/>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:16" ht="18.600000000000001" thickBot="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="1:16" ht="18.600000000000001" thickBot="1">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+    </row>
+    <row r="58" spans="1:16" ht="18.600000000000001" thickBot="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.600000000000001" thickBot="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+    </row>
+    <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+    </row>
+    <row r="61" spans="1:16" ht="18.600000000000001" thickBot="1">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
+      <c r="F62" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" s="30"/>
+    </row>
+    <row r="63" spans="1:16" ht="18.600000000000001" thickTop="1"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L14:P14"/>
+  <mergeCells count="33">
+    <mergeCell ref="F62:G62"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="L23:P23"/>
     <mergeCell ref="L24:P24"/>
@@ -3158,6 +3167,29 @@
     <mergeCell ref="L19:P19"/>
     <mergeCell ref="L20:P20"/>
     <mergeCell ref="L21:P21"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="L50:P50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3169,13 +3201,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580F4BA3-2323-4155-A95C-4DFE4202A119}">
   <dimension ref="A2:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U66" sqref="U66"/>
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:16" ht="32.4" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:16" ht="32.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3195,13 +3227,13 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:16" ht="33" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -3217,10 +3249,10 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -3233,15 +3265,15 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -3275,7 +3307,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,15 +3329,15 @@
       <c r="K9" s="6">
         <v>18</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -3313,13 +3345,13 @@
       <c r="G10" s="16"/>
       <c r="I10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -3327,13 +3359,13 @@
       <c r="G11" s="6"/>
       <c r="I11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -3341,13 +3373,13 @@
       <c r="G12" s="16"/>
       <c r="I12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -3355,13 +3387,13 @@
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -3369,13 +3401,13 @@
       <c r="G14" s="16"/>
       <c r="I14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -3383,13 +3415,13 @@
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-    </row>
-    <row r="17" spans="1:16" ht="32.4" x14ac:dyDescent="0.8">
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="17" spans="1:16" ht="32.4">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -3409,13 +3441,13 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:16" ht="33" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3429,10 +3461,10 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -3447,15 +3479,15 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -3489,7 +3521,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -3511,22 +3543,22 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="32.4" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:16" ht="32.4">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -3546,13 +3578,13 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:16" ht="33" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -3566,10 +3598,10 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -3584,15 +3616,15 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
@@ -3626,7 +3658,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3648,15 +3680,15 @@
       <c r="K36" s="6">
         <v>18</v>
       </c>
-      <c r="L36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3678,15 +3710,15 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L37" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3708,15 +3740,15 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L38" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3738,15 +3770,15 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L39" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3768,15 +3800,15 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L40" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3798,22 +3830,22 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+    </row>
+    <row r="42" spans="1:16">
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="44" spans="1:16" ht="32.4" x14ac:dyDescent="0.8">
+    <row r="44" spans="1:16" ht="32.4">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -3833,13 +3865,13 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:16" ht="33" thickBot="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -3853,10 +3885,10 @@
       <c r="H46" s="11"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:16" ht="18.600000000000001" thickBot="1">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>39</v>
       </c>
@@ -3871,15 +3903,15 @@
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
-      <c r="L48" s="20" t="s">
+      <c r="L48" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="21"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="M48" s="30"/>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
@@ -3913,7 +3945,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3935,15 +3967,15 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L51" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3965,15 +3997,15 @@
       <c r="K52" s="6">
         <v>18</v>
       </c>
-      <c r="L52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L52" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -3995,15 +4027,15 @@
       <c r="K53" s="6">
         <v>18</v>
       </c>
-      <c r="L53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L53" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4025,15 +4057,15 @@
       <c r="K54" s="6">
         <v>18</v>
       </c>
-      <c r="L54" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L54" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -4055,15 +4087,15 @@
       <c r="K55" s="6">
         <v>18</v>
       </c>
-      <c r="L55" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -4085,15 +4117,15 @@
       <c r="K56" s="6">
         <v>18</v>
       </c>
-      <c r="L56" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L56" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4115,15 +4147,15 @@
       <c r="K57" s="6">
         <v>18</v>
       </c>
-      <c r="L57" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L57" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4145,15 +4177,15 @@
       <c r="K58" s="6">
         <v>18</v>
       </c>
-      <c r="L58" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L58" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4175,96 +4207,100 @@
       <c r="K59" s="6">
         <v>18</v>
       </c>
-      <c r="L59" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L59" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+    </row>
+    <row r="61" spans="1:22">
       <c r="V61" s="9"/>
     </row>
-    <row r="62" spans="1:22" ht="28.2" x14ac:dyDescent="0.6">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:22" ht="28.2">
+      <c r="A62" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="B63" s="25" t="s">
+    <row r="63" spans="1:22" ht="20.399999999999999">
+      <c r="B63" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:22">
       <c r="C64" s="9" t="s">
         <v>119</v>
       </c>
       <c r="F64" t="s">
         <v>122</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:13">
       <c r="C65" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="I65" s="20" t="s">
         <v>132</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="M65" s="27" t="s">
+      <c r="M65" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="83.4" x14ac:dyDescent="4.1500000000000004">
-      <c r="M66" s="27" t="s">
+    <row r="66" spans="2:13" ht="83.4">
+      <c r="M66" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="I67" s="29" t="s">
+    <row r="67" spans="2:13">
+      <c r="I67" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="28" t="s">
+    <row r="72" spans="2:13" ht="22.2">
+      <c r="B72" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:13">
       <c r="C73" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:13">
       <c r="C74" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:13">
       <c r="C75" s="9" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="L55:P55"/>
     <mergeCell ref="L41:P41"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L24:P24"/>
@@ -4276,16 +4312,12 @@
     <mergeCell ref="L38:P38"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4301,42 +4333,42 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="10" max="10" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -4347,7 +4379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -4358,7 +4390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -4375,7 +4407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4389,7 +4421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -4400,7 +4432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
         <v>36</v>
       </c>
@@ -4411,13 +4443,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -4428,7 +4460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="B28" s="17" t="s">
         <v>38</v>
       </c>
@@ -4442,7 +4474,7 @@
       </c>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -4452,7 +4484,7 @@
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="B30" s="17" t="s">
         <v>71</v>
       </c>
@@ -4464,7 +4496,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="B31" s="17" t="s">
         <v>71</v>
       </c>
@@ -4490,19 +4522,19 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="B3" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="B5" s="9" t="s">
         <v>58</v>
       </c>
@@ -4510,27 +4542,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="E6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="E7" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="E9" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="E10" s="9" t="s">
         <v>50</v>
       </c>
@@ -4544,7 +4576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
@@ -4555,7 +4587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>66</v>
       </c>

--- a/資料/学生情报.xlsx
+++ b/資料/学生情报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\test-html\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF8D50-FB06-44B9-9690-E1556CE27237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F765306-AD32-45AA-810F-088631C65BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="155">
   <si>
     <t>学生情報</t>
     <rPh sb="0" eb="2">
@@ -812,10 +812,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>︾</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>full</t>
     </r>
@@ -947,12 +943,119 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>︾全选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> □</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注编辑</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>班级：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>性别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,6 +1206,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1142,7 +1261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1213,11 +1332,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1262,9 +1476,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1272,17 +1485,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1304,16 +1557,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>556261</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1328,8 +1581,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10210801" y="8602980"/>
-          <a:ext cx="403860" cy="243840"/>
+          <a:off x="30481" y="8595360"/>
+          <a:ext cx="160019" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728445BF-206B-42D5-973D-1EBB4A7952C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10713720" y="17876520"/>
+          <a:ext cx="358140" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,15 +2222,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U63"/>
+  <dimension ref="A2:V109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="16" max="16" width="8.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="32.4">
+    <row r="2" spans="1:17" ht="32.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1930,14 +2252,15 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1">
+    <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1951,10 +2274,10 @@
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="1:17" ht="18.600000000000001" thickBot="1">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
+    <row r="6" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1967,20 +2290,20 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -2004,17 +2327,16 @@
       <c r="K9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5" t="s">
+      <c r="L9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2036,15 +2358,18 @@
       <c r="K10" s="6">
         <v>18</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="L10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2066,15 +2391,18 @@
       <c r="K11" s="6">
         <v>18</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="L11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2096,15 +2424,18 @@
       <c r="K12" s="6">
         <v>18</v>
       </c>
-      <c r="L12" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="L12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2126,15 +2457,18 @@
       <c r="K13" s="6">
         <v>18</v>
       </c>
-      <c r="L13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="L13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2156,15 +2490,18 @@
       <c r="K14" s="6">
         <v>18</v>
       </c>
-      <c r="L14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="L14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -2186,15 +2523,18 @@
       <c r="K15" s="6">
         <v>18</v>
       </c>
-      <c r="L15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="L15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2216,15 +2556,18 @@
       <c r="K16" s="6">
         <v>18</v>
       </c>
-      <c r="L16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="L16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2246,15 +2589,18 @@
       <c r="K17" s="6">
         <v>18</v>
       </c>
-      <c r="L17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="L17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2276,15 +2622,18 @@
       <c r="K18" s="6">
         <v>18</v>
       </c>
-      <c r="L18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="L18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2306,15 +2655,18 @@
       <c r="K19" s="6">
         <v>18</v>
       </c>
-      <c r="L19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="L19" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2336,15 +2688,18 @@
       <c r="K20" s="6">
         <v>18</v>
       </c>
-      <c r="L20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="L20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2366,15 +2721,18 @@
       <c r="K21" s="6">
         <v>18</v>
       </c>
-      <c r="L21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="L21" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2396,15 +2754,18 @@
       <c r="K22" s="6">
         <v>18</v>
       </c>
-      <c r="L22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="L22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2426,15 +2787,18 @@
       <c r="K23" s="6">
         <v>18</v>
       </c>
-      <c r="L23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="L23" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2456,22 +2820,26 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="L24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-    </row>
-    <row r="29" spans="1:16" ht="32.4">
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="29" spans="1:17" ht="32.4">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2490,14 +2858,15 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="33" thickBot="1">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="33" thickBot="1">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1">
+    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -2511,10 +2880,10 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1">
+    <row r="32" spans="1:17" ht="18.600000000000001" thickBot="1">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:21" ht="19.2" thickTop="1" thickBot="1">
+    <row r="33" spans="1:22" ht="19.2" thickTop="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -2527,20 +2896,20 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:22">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -2564,17 +2933,16 @@
       <c r="K36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="5" t="s">
+      <c r="L36" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2596,15 +2964,18 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="L37" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -2626,15 +2997,18 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="L38" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2656,15 +3030,18 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="L39" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2686,15 +3063,18 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="L40" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2716,15 +3096,18 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="L41" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2746,15 +3129,18 @@
       <c r="K42" s="6">
         <v>18</v>
       </c>
-      <c r="L42" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="L42" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2776,15 +3162,18 @@
       <c r="K43" s="6">
         <v>18</v>
       </c>
-      <c r="L43" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="L43" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2806,15 +3195,18 @@
       <c r="K44" s="6">
         <v>18</v>
       </c>
-      <c r="L44" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="L44" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2836,18 +3228,21 @@
       <c r="K45" s="6">
         <v>18</v>
       </c>
-      <c r="L45" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="S45" s="27"/>
+      <c r="L45" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="T45" s="27"/>
       <c r="U45" s="27"/>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45" s="27"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2869,19 +3264,22 @@
       <c r="K46" s="6">
         <v>18</v>
       </c>
-      <c r="L46" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="27"/>
+      <c r="L46" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="S46" s="26"/>
+      <c r="T46" s="9"/>
       <c r="U46" s="27"/>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46" s="27"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2903,16 +3301,19 @@
       <c r="K47" s="6">
         <v>18</v>
       </c>
-      <c r="L47" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="S47" s="9"/>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="L47" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="T47" s="9"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2934,16 +3335,19 @@
       <c r="K48" s="6">
         <v>18</v>
       </c>
-      <c r="L48" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="S48" s="9"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="L48" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="T48" s="9"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2965,15 +3369,18 @@
       <c r="K49" s="6">
         <v>18</v>
       </c>
-      <c r="L49" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="L49" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2995,15 +3402,18 @@
       <c r="K50" s="6">
         <v>18</v>
       </c>
-      <c r="L50" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="L50" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3025,171 +3435,1022 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="32" t="s">
+      <c r="L51" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-    </row>
-    <row r="54" spans="1:16" ht="22.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="39" t="s">
+    </row>
+    <row r="54" spans="1:17" ht="22.2">
+      <c r="B54" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B56" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B57" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B58" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-    </row>
-    <row r="55" spans="1:16" ht="18.600000000000001" thickBot="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:16" ht="18.600000000000001" thickBot="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33" t="s">
+      <c r="C58" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B59" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B60" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
+      <c r="F62" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="31"/>
+    </row>
+    <row r="63" spans="1:17" ht="18.600000000000001" thickTop="1"/>
+    <row r="66" spans="1:17" ht="32.4">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" ht="33" thickBot="1">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A68" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="1:16" ht="18.600000000000001" thickBot="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="F68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="32"/>
-    </row>
-    <row r="58" spans="1:16" ht="18.600000000000001" thickBot="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-    </row>
-    <row r="59" spans="1:16" ht="18.600000000000001" thickBot="1">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="32"/>
-    </row>
-    <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="F70" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+      <c r="L70" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" s="31"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="32"/>
-    </row>
-    <row r="61" spans="1:16" ht="18.600000000000001" thickBot="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="1:16" ht="19.2" thickTop="1" thickBot="1">
-      <c r="F62" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="30"/>
-    </row>
-    <row r="63" spans="1:16" ht="18.600000000000001" thickTop="1"/>
+      <c r="B73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="36"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="6">
+        <v>123</v>
+      </c>
+      <c r="K74" s="6">
+        <v>18</v>
+      </c>
+      <c r="L74" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="6">
+        <v>123</v>
+      </c>
+      <c r="K75" s="6">
+        <v>18</v>
+      </c>
+      <c r="L75" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="6">
+        <v>123</v>
+      </c>
+      <c r="K76" s="6">
+        <v>18</v>
+      </c>
+      <c r="L76" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="6">
+        <v>123</v>
+      </c>
+      <c r="K77" s="6">
+        <v>18</v>
+      </c>
+      <c r="L77" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" s="6">
+        <v>123</v>
+      </c>
+      <c r="K78" s="6">
+        <v>18</v>
+      </c>
+      <c r="L78" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="6">
+        <v>123</v>
+      </c>
+      <c r="K79" s="6">
+        <v>18</v>
+      </c>
+      <c r="L79" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="6">
+        <v>123</v>
+      </c>
+      <c r="K80" s="6">
+        <v>18</v>
+      </c>
+      <c r="L80" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="6">
+        <v>123</v>
+      </c>
+      <c r="K81" s="6">
+        <v>18</v>
+      </c>
+      <c r="L81" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" s="6">
+        <v>123</v>
+      </c>
+      <c r="K82" s="6">
+        <v>18</v>
+      </c>
+      <c r="L82" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="6">
+        <v>123</v>
+      </c>
+      <c r="K83" s="6">
+        <v>18</v>
+      </c>
+      <c r="L83" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" s="6">
+        <v>123</v>
+      </c>
+      <c r="K84" s="6">
+        <v>18</v>
+      </c>
+      <c r="L84" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="6">
+        <v>123</v>
+      </c>
+      <c r="K85" s="6">
+        <v>18</v>
+      </c>
+      <c r="L85" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" s="6">
+        <v>123</v>
+      </c>
+      <c r="K86" s="6">
+        <v>18</v>
+      </c>
+      <c r="L86" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="6">
+        <v>123</v>
+      </c>
+      <c r="K87" s="6">
+        <v>18</v>
+      </c>
+      <c r="L87" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="6">
+        <v>123</v>
+      </c>
+      <c r="K88" s="6">
+        <v>18</v>
+      </c>
+      <c r="L88" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="B91" s="38"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="40"/>
+    </row>
+    <row r="92" spans="1:17" ht="22.2">
+      <c r="B92" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="48"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="50"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="B93" s="41"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="43"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="B94" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="52"/>
+      <c r="E94" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F94" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="43"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="B95" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="43"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="43"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="43"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="41"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="43"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="41"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="43"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="43"/>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="43"/>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="41"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="L108" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="M108" s="43"/>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="7">
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:P73"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="F62:G62"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L14:P14"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="L50:P50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3265,10 +4526,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="6"/>
@@ -3329,13 +4590,13 @@
       <c r="K9" s="6">
         <v>18</v>
       </c>
-      <c r="L9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
+      <c r="L9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3"/>
@@ -3345,11 +4606,11 @@
       <c r="G10" s="16"/>
       <c r="I10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3"/>
@@ -3359,11 +4620,11 @@
       <c r="G11" s="6"/>
       <c r="I11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3"/>
@@ -3373,11 +4634,11 @@
       <c r="G12" s="16"/>
       <c r="I12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3"/>
@@ -3387,11 +4648,11 @@
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3"/>
@@ -3401,11 +4662,11 @@
       <c r="G14" s="16"/>
       <c r="I14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3"/>
@@ -3415,11 +4676,11 @@
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="32.4">
       <c r="A17" s="2" t="s">
@@ -3479,10 +4740,10 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="6"/>
@@ -3543,13 +4804,13 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="L24" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16">
       <c r="L25" s="6"/>
@@ -3616,10 +4877,10 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="30"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="6"/>
@@ -3680,13 +4941,13 @@
       <c r="K36" s="6">
         <v>18</v>
       </c>
-      <c r="L36" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
+      <c r="L36" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="3" t="s">
@@ -3710,13 +4971,13 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
+      <c r="L37" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
@@ -3740,13 +5001,13 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
+      <c r="L38" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
@@ -3770,13 +5031,13 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="L39" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
@@ -3800,13 +5061,13 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
+      <c r="L40" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
@@ -3830,13 +5091,13 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="L41" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
     </row>
     <row r="42" spans="1:16">
       <c r="L42" s="6"/>
@@ -3903,10 +5164,10 @@
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
-      <c r="L48" s="29" t="s">
+      <c r="L48" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="30"/>
+      <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="6"/>
@@ -3967,13 +5228,13 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="L51" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -3997,13 +5258,13 @@
       <c r="K52" s="6">
         <v>18</v>
       </c>
-      <c r="L52" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
+      <c r="L52" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="3" t="s">
@@ -4027,13 +5288,13 @@
       <c r="K53" s="6">
         <v>18</v>
       </c>
-      <c r="L53" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
+      <c r="L53" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="3" t="s">
@@ -4057,13 +5318,13 @@
       <c r="K54" s="6">
         <v>18</v>
       </c>
-      <c r="L54" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
+      <c r="L54" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="3" t="s">
@@ -4087,13 +5348,13 @@
       <c r="K55" s="6">
         <v>18</v>
       </c>
-      <c r="L55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
+      <c r="L55" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="3" t="s">
@@ -4117,13 +5378,13 @@
       <c r="K56" s="6">
         <v>18</v>
       </c>
-      <c r="L56" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
+      <c r="L56" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="3" t="s">
@@ -4147,13 +5408,13 @@
       <c r="K57" s="6">
         <v>18</v>
       </c>
-      <c r="L57" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
+      <c r="L57" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="3" t="s">
@@ -4177,13 +5438,13 @@
       <c r="K58" s="6">
         <v>18</v>
       </c>
-      <c r="L58" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
+      <c r="L58" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="3" t="s">
@@ -4207,13 +5468,13 @@
       <c r="K59" s="6">
         <v>18</v>
       </c>
-      <c r="L59" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
+      <c r="L59" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
     </row>
     <row r="61" spans="1:22">
       <c r="V61" s="9"/>
@@ -4291,16 +5552,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
     <mergeCell ref="L41:P41"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L24:P24"/>
@@ -4312,12 +5569,16 @@
     <mergeCell ref="L38:P38"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="L55:P55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/学生情报.xlsx
+++ b/資料/学生情报.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\test-html\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F765306-AD32-45AA-810F-088631C65BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86744DC5-DBA9-449E-A386-AEFCE83F598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="搜索功能的式样说明" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="編集機能" sheetId="5" r:id="rId2"/>
+    <sheet name="搜索功能的式样说明" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="162">
   <si>
     <t>学生情報</t>
     <rPh sb="0" eb="2">
@@ -1048,6 +1049,61 @@
   </si>
   <si>
     <t>clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsdfdsgfhncvb sfdfvsdvcasdcsdbvdfbfd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容入力、OKボダン押下</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「OK」ボダン押下</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーへPOST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ閉じる</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面リロード</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ表示の見た目</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1223,7 +1279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,6 +1313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1478,6 +1540,46 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,52 +1592,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1691,6 +1750,366 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54A9C5B-FB1D-4472-B7B7-F858BB897B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10713720" y="17876520"/>
+          <a:ext cx="358140" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298F171C-2DEF-4D00-9D90-4F9D7D74DED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="15361920"/>
+          <a:ext cx="731520" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15ACBB7-D917-4D27-B80D-15F3A5574825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10713720" y="2278380"/>
+          <a:ext cx="358140" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>191207</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>99446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD416AF-A075-DE89-5925-BB653D95CE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10812780" y="11247120"/>
+          <a:ext cx="8154107" cy="4450466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E309CB47-876B-ED8D-3594-6750478D6A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11026140"/>
+          <a:ext cx="11224260" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="76000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122614</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01609CC-4A6C-50B5-F3E7-54D66FFBC31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501140" y="11437620"/>
+          <a:ext cx="8009314" cy="4389500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2224,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="O103" sqref="O103"/>
+    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:R111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2290,10 +2709,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6"/>
@@ -2327,14 +2746,14 @@
       <c r="K9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="36"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
@@ -2358,14 +2777,14 @@
       <c r="K10" s="6">
         <v>18</v>
       </c>
-      <c r="L10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="37" t="s">
+      <c r="L10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2391,14 +2810,14 @@
       <c r="K11" s="6">
         <v>18</v>
       </c>
-      <c r="L11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="37" t="s">
+      <c r="L11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2424,14 +2843,14 @@
       <c r="K12" s="6">
         <v>18</v>
       </c>
-      <c r="L12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="37" t="s">
+      <c r="L12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2457,14 +2876,14 @@
       <c r="K13" s="6">
         <v>18</v>
       </c>
-      <c r="L13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="37" t="s">
+      <c r="L13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2490,14 +2909,14 @@
       <c r="K14" s="6">
         <v>18</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="37" t="s">
+      <c r="L14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2523,14 +2942,14 @@
       <c r="K15" s="6">
         <v>18</v>
       </c>
-      <c r="L15" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="37" t="s">
+      <c r="L15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2556,14 +2975,14 @@
       <c r="K16" s="6">
         <v>18</v>
       </c>
-      <c r="L16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="37" t="s">
+      <c r="L16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2589,14 +3008,14 @@
       <c r="K17" s="6">
         <v>18</v>
       </c>
-      <c r="L17" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="37" t="s">
+      <c r="L17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2622,14 +3041,14 @@
       <c r="K18" s="6">
         <v>18</v>
       </c>
-      <c r="L18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="37" t="s">
+      <c r="L18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2655,14 +3074,14 @@
       <c r="K19" s="6">
         <v>18</v>
       </c>
-      <c r="L19" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="37" t="s">
+      <c r="L19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2688,14 +3107,14 @@
       <c r="K20" s="6">
         <v>18</v>
       </c>
-      <c r="L20" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="37" t="s">
+      <c r="L20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2721,14 +3140,14 @@
       <c r="K21" s="6">
         <v>18</v>
       </c>
-      <c r="L21" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="37" t="s">
+      <c r="L21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2754,14 +3173,14 @@
       <c r="K22" s="6">
         <v>18</v>
       </c>
-      <c r="L22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="37" t="s">
+      <c r="L22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2787,14 +3206,14 @@
       <c r="K23" s="6">
         <v>18</v>
       </c>
-      <c r="L23" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="37" t="s">
+      <c r="L23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2820,14 +3239,14 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="37" t="s">
+      <c r="L24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2896,10 +3315,10 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="31"/>
+      <c r="M33" s="53"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="6"/>
@@ -2933,14 +3352,14 @@
       <c r="K36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="34" t="s">
+      <c r="L36" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="3" t="s">
@@ -2964,14 +3383,14 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="37" t="s">
+      <c r="L37" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2997,14 +3416,14 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="37" t="s">
+      <c r="L38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3030,14 +3449,14 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="37" t="s">
+      <c r="L39" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3063,14 +3482,14 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="37" t="s">
+      <c r="L40" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3096,14 +3515,14 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="37" t="s">
+      <c r="L41" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3129,14 +3548,14 @@
       <c r="K42" s="6">
         <v>18</v>
       </c>
-      <c r="L42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="37" t="s">
+      <c r="L42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3162,14 +3581,14 @@
       <c r="K43" s="6">
         <v>18</v>
       </c>
-      <c r="L43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="37" t="s">
+      <c r="L43" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3195,14 +3614,14 @@
       <c r="K44" s="6">
         <v>18</v>
       </c>
-      <c r="L44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="37" t="s">
+      <c r="L44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3228,14 +3647,14 @@
       <c r="K45" s="6">
         <v>18</v>
       </c>
-      <c r="L45" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="37" t="s">
+      <c r="L45" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="33" t="s">
         <v>144</v>
       </c>
       <c r="T45" s="27"/>
@@ -3264,14 +3683,14 @@
       <c r="K46" s="6">
         <v>18</v>
       </c>
-      <c r="L46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="37" t="s">
+      <c r="L46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="33" t="s">
         <v>144</v>
       </c>
       <c r="S46" s="26"/>
@@ -3301,14 +3720,14 @@
       <c r="K47" s="6">
         <v>18</v>
       </c>
-      <c r="L47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="37" t="s">
+      <c r="L47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="33" t="s">
         <v>144</v>
       </c>
       <c r="T47" s="9"/>
@@ -3335,14 +3754,14 @@
       <c r="K48" s="6">
         <v>18</v>
       </c>
-      <c r="L48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="37" t="s">
+      <c r="L48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="33" t="s">
         <v>144</v>
       </c>
       <c r="T48" s="9"/>
@@ -3369,14 +3788,14 @@
       <c r="K49" s="6">
         <v>18</v>
       </c>
-      <c r="L49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="37" t="s">
+      <c r="L49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3402,14 +3821,14 @@
       <c r="K50" s="6">
         <v>18</v>
       </c>
-      <c r="L50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="37" t="s">
+      <c r="L50" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3435,14 +3854,14 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="37" t="s">
+      <c r="L51" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3537,10 +3956,10 @@
       <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="G62" s="31"/>
+      <c r="G62" s="53"/>
     </row>
     <row r="63" spans="1:17" ht="18.600000000000001" thickTop="1"/>
     <row r="66" spans="1:17" ht="32.4">
@@ -3600,10 +4019,10 @@
       <c r="G70" s="10"/>
       <c r="H70" s="11"/>
       <c r="I70" s="12"/>
-      <c r="L70" s="30" t="s">
+      <c r="L70" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M70" s="31"/>
+      <c r="M70" s="53"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="6"/>
@@ -3637,14 +4056,14 @@
       <c r="K73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="34" t="s">
+      <c r="L73" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="36"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="32"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="3" t="s">
@@ -3668,14 +4087,14 @@
       <c r="K74" s="6">
         <v>18</v>
       </c>
-      <c r="L74" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="37" t="s">
+      <c r="L74" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3701,14 +4120,14 @@
       <c r="K75" s="6">
         <v>18</v>
       </c>
-      <c r="L75" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="37" t="s">
+      <c r="L75" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3734,14 +4153,14 @@
       <c r="K76" s="6">
         <v>18</v>
       </c>
-      <c r="L76" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="37" t="s">
+      <c r="L76" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3767,14 +4186,14 @@
       <c r="K77" s="6">
         <v>18</v>
       </c>
-      <c r="L77" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="37" t="s">
+      <c r="L77" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3800,14 +4219,14 @@
       <c r="K78" s="6">
         <v>18</v>
       </c>
-      <c r="L78" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="37" t="s">
+      <c r="L78" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3833,14 +4252,14 @@
       <c r="K79" s="6">
         <v>18</v>
       </c>
-      <c r="L79" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="37" t="s">
+      <c r="L79" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3866,14 +4285,14 @@
       <c r="K80" s="6">
         <v>18</v>
       </c>
-      <c r="L80" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="37" t="s">
+      <c r="L80" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3899,14 +4318,14 @@
       <c r="K81" s="6">
         <v>18</v>
       </c>
-      <c r="L81" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="37" t="s">
+      <c r="L81" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3932,14 +4351,14 @@
       <c r="K82" s="6">
         <v>18</v>
       </c>
-      <c r="L82" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="37" t="s">
+      <c r="L82" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3965,14 +4384,14 @@
       <c r="K83" s="6">
         <v>18</v>
       </c>
-      <c r="L83" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="37" t="s">
+      <c r="L83" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3998,14 +4417,14 @@
       <c r="K84" s="6">
         <v>18</v>
       </c>
-      <c r="L84" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="37" t="s">
+      <c r="L84" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4031,14 +4450,14 @@
       <c r="K85" s="6">
         <v>18</v>
       </c>
-      <c r="L85" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="37" t="s">
+      <c r="L85" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4064,14 +4483,14 @@
       <c r="K86" s="6">
         <v>18</v>
       </c>
-      <c r="L86" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="37" t="s">
+      <c r="L86" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4097,14 +4516,14 @@
       <c r="K87" s="6">
         <v>18</v>
       </c>
-      <c r="L87" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="37" t="s">
+      <c r="L87" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4130,14 +4549,14 @@
       <c r="K88" s="6">
         <v>18</v>
       </c>
-      <c r="L88" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="37" t="s">
+      <c r="L88" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="33" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4155,302 +4574,186 @@
       </c>
     </row>
     <row r="91" spans="1:17">
-      <c r="B91" s="38"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="40"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="36"/>
     </row>
     <row r="92" spans="1:17" ht="22.2">
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="50"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="44"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="B93" s="41"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="42"/>
-      <c r="M93" s="43"/>
+      <c r="B93" s="37"/>
+      <c r="M93" s="38"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="55" t="s">
+      <c r="C94" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="52"/>
-      <c r="E94" s="53" t="s">
+      <c r="D94" s="30"/>
+      <c r="E94" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F94" s="56" t="s">
+      <c r="F94" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="43"/>
+      <c r="M94" s="38"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52" t="s">
+      <c r="D95" s="30"/>
+      <c r="E95" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F95" s="57" t="s">
+      <c r="F95" t="s">
         <v>150</v>
       </c>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="43"/>
+      <c r="M95" s="38"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="43"/>
+      <c r="B96" s="37"/>
+      <c r="M96" s="38"/>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
-      <c r="M97" s="43"/>
+      <c r="M97" s="38"/>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="41"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="43"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="38"/>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="43"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="43"/>
-      <c r="M101" s="43"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="43"/>
-      <c r="M102" s="43"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
     </row>
     <row r="103" spans="2:13">
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="43"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
     </row>
     <row r="104" spans="2:13">
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="41"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="46"/>
-      <c r="M105" s="43"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="38"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="41"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
-      <c r="M106" s="43"/>
+      <c r="B106" s="37"/>
+      <c r="M106" s="38"/>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="43"/>
+      <c r="B107" s="37"/>
+      <c r="M107" s="38"/>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="41"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="59" t="s">
+      <c r="B108" s="37"/>
+      <c r="J108" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="L108" s="59" t="s">
+      <c r="L108" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="M108" s="43"/>
+      <c r="M108" s="38"/>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="44"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="45"/>
-      <c r="M109" s="46"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="L33:M33"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="L73:P73"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4459,6 +4762,2298 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6C2209-4237-4251-ABB0-DCD2FB4B3E75}">
+  <dimension ref="A1:W119"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="32.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="33" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="L5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6">
+        <v>123</v>
+      </c>
+      <c r="K9" s="6">
+        <v>18</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6">
+        <v>123</v>
+      </c>
+      <c r="K10" s="6">
+        <v>18</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="6">
+        <v>123</v>
+      </c>
+      <c r="K11" s="6">
+        <v>18</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="6">
+        <v>123</v>
+      </c>
+      <c r="K12" s="6">
+        <v>18</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="6">
+        <v>123</v>
+      </c>
+      <c r="K13" s="6">
+        <v>18</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6">
+        <v>123</v>
+      </c>
+      <c r="K14" s="6">
+        <v>18</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6">
+        <v>123</v>
+      </c>
+      <c r="K15" s="6">
+        <v>18</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6">
+        <v>123</v>
+      </c>
+      <c r="K16" s="6">
+        <v>18</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="6">
+        <v>123</v>
+      </c>
+      <c r="K17" s="6">
+        <v>18</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="6">
+        <v>123</v>
+      </c>
+      <c r="K18" s="6">
+        <v>18</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="6">
+        <v>123</v>
+      </c>
+      <c r="K19" s="6">
+        <v>18</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6">
+        <v>123</v>
+      </c>
+      <c r="K20" s="6">
+        <v>18</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="6">
+        <v>123</v>
+      </c>
+      <c r="K21" s="6">
+        <v>18</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6">
+        <v>123</v>
+      </c>
+      <c r="K22" s="6">
+        <v>18</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="6">
+        <v>123</v>
+      </c>
+      <c r="K23" s="6">
+        <v>18</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+    </row>
+    <row r="27" spans="1:17" ht="22.2">
+      <c r="B27" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="44"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="37"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" s="38"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="37"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="B33" s="37"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="B40" s="37"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" s="37"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="37"/>
+      <c r="M42" s="38"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="37"/>
+      <c r="J43" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="L43" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="M43" s="38"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="41"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="1:17" ht="32.4">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="33" thickBot="1">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="F49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="F51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+      <c r="L51" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="53"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="32"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="6">
+        <v>123</v>
+      </c>
+      <c r="K55" s="6">
+        <v>18</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="6">
+        <v>123</v>
+      </c>
+      <c r="K56" s="6">
+        <v>18</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="6">
+        <v>123</v>
+      </c>
+      <c r="K57" s="6">
+        <v>18</v>
+      </c>
+      <c r="L57" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="6">
+        <v>123</v>
+      </c>
+      <c r="K58" s="6">
+        <v>18</v>
+      </c>
+      <c r="L58" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="6">
+        <v>123</v>
+      </c>
+      <c r="K59" s="6">
+        <v>18</v>
+      </c>
+      <c r="L59" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="6">
+        <v>123</v>
+      </c>
+      <c r="K60" s="6">
+        <v>18</v>
+      </c>
+      <c r="L60" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="6">
+        <v>123</v>
+      </c>
+      <c r="K61" s="6">
+        <v>18</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="6">
+        <v>123</v>
+      </c>
+      <c r="K62" s="6">
+        <v>18</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="6">
+        <v>123</v>
+      </c>
+      <c r="K63" s="6">
+        <v>18</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="6">
+        <v>123</v>
+      </c>
+      <c r="K64" s="6">
+        <v>18</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="6">
+        <v>123</v>
+      </c>
+      <c r="K65" s="6">
+        <v>18</v>
+      </c>
+      <c r="L65" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="6">
+        <v>123</v>
+      </c>
+      <c r="K66" s="6">
+        <v>18</v>
+      </c>
+      <c r="L66" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="6">
+        <v>123</v>
+      </c>
+      <c r="K67" s="6">
+        <v>18</v>
+      </c>
+      <c r="L67" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="6">
+        <v>123</v>
+      </c>
+      <c r="K68" s="6">
+        <v>18</v>
+      </c>
+      <c r="L68" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="6">
+        <v>123</v>
+      </c>
+      <c r="K69" s="6">
+        <v>18</v>
+      </c>
+      <c r="L69" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="58"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="B76" s="34"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="36"/>
+    </row>
+    <row r="77" spans="1:17" ht="22.2">
+      <c r="B77" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="43"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="44"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="B78" s="37"/>
+      <c r="M78" s="38"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="B79" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="30"/>
+      <c r="E79" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="M79" s="38"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="B80" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" t="s">
+        <v>150</v>
+      </c>
+      <c r="M80" s="38"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="B81" s="37"/>
+      <c r="M81" s="38"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="B82" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="M82" s="38"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="B83" s="37"/>
+      <c r="C83" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="38"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" s="37"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="38"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="B91" s="37"/>
+      <c r="M91" s="38"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="B92" s="37"/>
+      <c r="M92" s="38"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="B93" s="37"/>
+      <c r="J93" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="L93" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="M93" s="38"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="B94" s="39"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="41"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="32.4">
+      <c r="A97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:23" ht="33" thickBot="1">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="1:23" ht="18.600000000000001" thickBot="1">
+      <c r="A99" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="F99" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" s="10"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:23" ht="18.600000000000001" thickBot="1">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:23" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A101" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="F101" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="12"/>
+      <c r="L101" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="M101" s="53"/>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J104" s="4"/>
+      <c r="K104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L104" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="32"/>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="6">
+        <v>123</v>
+      </c>
+      <c r="K105" s="6">
+        <v>18</v>
+      </c>
+      <c r="L105" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M105" s="31"/>
+      <c r="N105" s="31"/>
+      <c r="O105" s="31"/>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="6">
+        <v>123</v>
+      </c>
+      <c r="K106" s="6">
+        <v>18</v>
+      </c>
+      <c r="L106" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M106" s="31"/>
+      <c r="N106" s="31"/>
+      <c r="O106" s="31"/>
+      <c r="P106" s="31"/>
+      <c r="Q106" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="6">
+        <v>123</v>
+      </c>
+      <c r="K107" s="6">
+        <v>18</v>
+      </c>
+      <c r="L107" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M107" s="31"/>
+      <c r="N107" s="31"/>
+      <c r="O107" s="31"/>
+      <c r="P107" s="31"/>
+      <c r="Q107" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="S107" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="T107" s="56"/>
+      <c r="U107" s="56"/>
+      <c r="V107" s="56"/>
+      <c r="W107" s="56"/>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="6">
+        <v>123</v>
+      </c>
+      <c r="K108" s="6">
+        <v>18</v>
+      </c>
+      <c r="L108" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31"/>
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="S108" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="T108" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="U108" s="56"/>
+      <c r="V108" s="56"/>
+      <c r="W108" s="56"/>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" s="6">
+        <v>123</v>
+      </c>
+      <c r="K109" s="6">
+        <v>18</v>
+      </c>
+      <c r="L109" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M109" s="31"/>
+      <c r="N109" s="31"/>
+      <c r="O109" s="31"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="S109" s="56"/>
+      <c r="T109" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="U109" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="V109" s="56"/>
+      <c r="W109" s="56"/>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="6">
+        <v>123</v>
+      </c>
+      <c r="K110" s="6">
+        <v>18</v>
+      </c>
+      <c r="L110" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M110" s="31"/>
+      <c r="N110" s="31"/>
+      <c r="O110" s="31"/>
+      <c r="P110" s="31"/>
+      <c r="Q110" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="S110" s="56"/>
+      <c r="T110" s="56"/>
+      <c r="U110" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="V110" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="W110" s="56"/>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" s="6">
+        <v>123</v>
+      </c>
+      <c r="K111" s="6">
+        <v>18</v>
+      </c>
+      <c r="L111" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M111" s="31"/>
+      <c r="N111" s="31"/>
+      <c r="O111" s="31"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="S111" s="57"/>
+      <c r="T111" s="57"/>
+      <c r="U111" s="57"/>
+      <c r="V111" s="57"/>
+      <c r="W111" s="57"/>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="6">
+        <v>123</v>
+      </c>
+      <c r="K112" s="6">
+        <v>18</v>
+      </c>
+      <c r="L112" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M112" s="31"/>
+      <c r="N112" s="31"/>
+      <c r="O112" s="31"/>
+      <c r="P112" s="31"/>
+      <c r="Q112" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" s="6">
+        <v>123</v>
+      </c>
+      <c r="K113" s="6">
+        <v>18</v>
+      </c>
+      <c r="L113" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M113" s="31"/>
+      <c r="N113" s="31"/>
+      <c r="O113" s="31"/>
+      <c r="P113" s="31"/>
+      <c r="Q113" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="6">
+        <v>123</v>
+      </c>
+      <c r="K114" s="6">
+        <v>18</v>
+      </c>
+      <c r="L114" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M114" s="31"/>
+      <c r="N114" s="31"/>
+      <c r="O114" s="31"/>
+      <c r="P114" s="31"/>
+      <c r="Q114" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" s="6">
+        <v>123</v>
+      </c>
+      <c r="K115" s="6">
+        <v>18</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M115" s="31"/>
+      <c r="N115" s="31"/>
+      <c r="O115" s="31"/>
+      <c r="P115" s="31"/>
+      <c r="Q115" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="6">
+        <v>123</v>
+      </c>
+      <c r="K116" s="6">
+        <v>18</v>
+      </c>
+      <c r="L116" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M116" s="31"/>
+      <c r="N116" s="31"/>
+      <c r="O116" s="31"/>
+      <c r="P116" s="31"/>
+      <c r="Q116" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117" s="6">
+        <v>123</v>
+      </c>
+      <c r="K117" s="6">
+        <v>18</v>
+      </c>
+      <c r="L117" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M117" s="31"/>
+      <c r="N117" s="31"/>
+      <c r="O117" s="31"/>
+      <c r="P117" s="31"/>
+      <c r="Q117" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" s="6">
+        <v>123</v>
+      </c>
+      <c r="K118" s="6">
+        <v>18</v>
+      </c>
+      <c r="L118" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M118" s="31"/>
+      <c r="N118" s="31"/>
+      <c r="O118" s="31"/>
+      <c r="P118" s="31"/>
+      <c r="Q118" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I119" s="6">
+        <v>123</v>
+      </c>
+      <c r="K119" s="6">
+        <v>18</v>
+      </c>
+      <c r="L119" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M119" s="31"/>
+      <c r="N119" s="31"/>
+      <c r="O119" s="31"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="L104:P104"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L54:P54"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580F4BA3-2323-4155-A95C-4DFE4202A119}">
   <dimension ref="A2:V75"/>
   <sheetViews>
@@ -4526,10 +7121,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="6"/>
@@ -4590,13 +7185,13 @@
       <c r="K9" s="6">
         <v>18</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
+      <c r="L9" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3"/>
@@ -4606,11 +7201,11 @@
       <c r="G10" s="16"/>
       <c r="I10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3"/>
@@ -4620,11 +7215,11 @@
       <c r="G11" s="6"/>
       <c r="I11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3"/>
@@ -4634,11 +7229,11 @@
       <c r="G12" s="16"/>
       <c r="I12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3"/>
@@ -4648,11 +7243,11 @@
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3"/>
@@ -4662,11 +7257,11 @@
       <c r="G14" s="16"/>
       <c r="I14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3"/>
@@ -4676,11 +7271,11 @@
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="17" spans="1:16" ht="32.4">
       <c r="A17" s="2" t="s">
@@ -4740,10 +7335,10 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="53"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="6"/>
@@ -4804,13 +7399,13 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
+      <c r="L24" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16">
       <c r="L25" s="6"/>
@@ -4877,10 +7472,10 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="31"/>
+      <c r="M33" s="53"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="6"/>
@@ -4941,13 +7536,13 @@
       <c r="K36" s="6">
         <v>18</v>
       </c>
-      <c r="L36" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
+      <c r="L36" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="3" t="s">
@@ -4971,13 +7566,13 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
+      <c r="L37" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
@@ -5001,13 +7596,13 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
+      <c r="L38" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
@@ -5031,13 +7626,13 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
+      <c r="L39" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
@@ -5061,13 +7656,13 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="L40" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
@@ -5091,13 +7686,13 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
+      <c r="L41" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
     </row>
     <row r="42" spans="1:16">
       <c r="L42" s="6"/>
@@ -5164,10 +7759,10 @@
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="31"/>
+      <c r="M48" s="53"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="6"/>
@@ -5228,13 +7823,13 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
+      <c r="L51" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -5258,13 +7853,13 @@
       <c r="K52" s="6">
         <v>18</v>
       </c>
-      <c r="L52" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
+      <c r="L52" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="3" t="s">
@@ -5288,13 +7883,13 @@
       <c r="K53" s="6">
         <v>18</v>
       </c>
-      <c r="L53" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
+      <c r="L53" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="3" t="s">
@@ -5318,13 +7913,13 @@
       <c r="K54" s="6">
         <v>18</v>
       </c>
-      <c r="L54" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
+      <c r="L54" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="3" t="s">
@@ -5348,13 +7943,13 @@
       <c r="K55" s="6">
         <v>18</v>
       </c>
-      <c r="L55" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
+      <c r="L55" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="3" t="s">
@@ -5378,13 +7973,13 @@
       <c r="K56" s="6">
         <v>18</v>
       </c>
-      <c r="L56" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
+      <c r="L56" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="3" t="s">
@@ -5408,13 +8003,13 @@
       <c r="K57" s="6">
         <v>18</v>
       </c>
-      <c r="L57" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
+      <c r="L57" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="3" t="s">
@@ -5438,13 +8033,13 @@
       <c r="K58" s="6">
         <v>18</v>
       </c>
-      <c r="L58" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
+      <c r="L58" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="3" t="s">
@@ -5468,13 +8063,13 @@
       <c r="K59" s="6">
         <v>18</v>
       </c>
-      <c r="L59" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
+      <c r="L59" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
     </row>
     <row r="61" spans="1:22">
       <c r="V61" s="9"/>
@@ -5552,12 +8147,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="L55:P55"/>
     <mergeCell ref="L41:P41"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L24:P24"/>
@@ -5569,16 +8168,12 @@
     <mergeCell ref="L38:P38"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5586,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B6E8C9-CBD0-4063-A4C0-3BB5FBD26A5F}">
   <dimension ref="A2:H31"/>
   <sheetViews>
@@ -5775,7 +8370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2490CBE8-28D1-4B12-BC37-2E8A81B8ACF4}">
   <dimension ref="A1:M14"/>
   <sheetViews>

--- a/資料/学生情报.xlsx
+++ b/資料/学生情报.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\test-html\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86744DC5-DBA9-449E-A386-AEFCE83F598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F765306-AD32-45AA-810F-088631C65BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="編集機能" sheetId="5" r:id="rId2"/>
-    <sheet name="搜索功能的式样说明" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="搜索功能的式样说明" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="155">
   <si>
     <t>学生情報</t>
     <rPh sb="0" eb="2">
@@ -1049,61 +1048,6 @@
   </si>
   <si>
     <t>clear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsdfdsgfhncvb sfdfvsdvcasdcsdbvdfbfd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容入力、OKボダン押下</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「OK」ボダン押下</t>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバーへPOST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポップアップ閉じる</t>
-    <rPh sb="6" eb="7">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メイン画面リロード</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポップアップ表示の見た目</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1279,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1313,12 +1257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1540,46 +1478,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1592,9 +1490,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1750,366 +1691,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54A9C5B-FB1D-4472-B7B7-F858BB897B8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10713720" y="17876520"/>
-          <a:ext cx="358140" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298F171C-2DEF-4D00-9D90-4F9D7D74DED0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="15361920"/>
-          <a:ext cx="731520" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15ACBB7-D917-4D27-B80D-15F3A5574825}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10713720" y="2278380"/>
-          <a:ext cx="358140" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>191207</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>99446</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD416AF-A075-DE89-5925-BB653D95CE79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10812780" y="11247120"/>
-          <a:ext cx="8154107" cy="4450466"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E309CB47-876B-ED8D-3594-6750478D6A09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11026140"/>
-          <a:ext cx="11224260" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-            <a:alpha val="76000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>122614</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>107060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01609CC-4A6C-50B5-F3E7-54D66FFBC31E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1501140" y="11437620"/>
-          <a:ext cx="8009314" cy="4389500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2643,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:R111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2709,10 +2290,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6"/>
@@ -2746,14 +2327,14 @@
       <c r="K9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="32"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
@@ -2777,14 +2358,14 @@
       <c r="K10" s="6">
         <v>18</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="33" t="s">
+      <c r="L10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2810,14 +2391,14 @@
       <c r="K11" s="6">
         <v>18</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="33" t="s">
+      <c r="L11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2843,14 +2424,14 @@
       <c r="K12" s="6">
         <v>18</v>
       </c>
-      <c r="L12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="33" t="s">
+      <c r="L12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2876,14 +2457,14 @@
       <c r="K13" s="6">
         <v>18</v>
       </c>
-      <c r="L13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="33" t="s">
+      <c r="L13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2909,14 +2490,14 @@
       <c r="K14" s="6">
         <v>18</v>
       </c>
-      <c r="L14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="33" t="s">
+      <c r="L14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2942,14 +2523,14 @@
       <c r="K15" s="6">
         <v>18</v>
       </c>
-      <c r="L15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="33" t="s">
+      <c r="L15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2975,14 +2556,14 @@
       <c r="K16" s="6">
         <v>18</v>
       </c>
-      <c r="L16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="33" t="s">
+      <c r="L16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3008,14 +2589,14 @@
       <c r="K17" s="6">
         <v>18</v>
       </c>
-      <c r="L17" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="33" t="s">
+      <c r="L17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3041,14 +2622,14 @@
       <c r="K18" s="6">
         <v>18</v>
       </c>
-      <c r="L18" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="33" t="s">
+      <c r="L18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3074,14 +2655,14 @@
       <c r="K19" s="6">
         <v>18</v>
       </c>
-      <c r="L19" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="33" t="s">
+      <c r="L19" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3107,14 +2688,14 @@
       <c r="K20" s="6">
         <v>18</v>
       </c>
-      <c r="L20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="33" t="s">
+      <c r="L20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3140,14 +2721,14 @@
       <c r="K21" s="6">
         <v>18</v>
       </c>
-      <c r="L21" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="33" t="s">
+      <c r="L21" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3173,14 +2754,14 @@
       <c r="K22" s="6">
         <v>18</v>
       </c>
-      <c r="L22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="33" t="s">
+      <c r="L22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3206,14 +2787,14 @@
       <c r="K23" s="6">
         <v>18</v>
       </c>
-      <c r="L23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="33" t="s">
+      <c r="L23" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3239,14 +2820,14 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="33" t="s">
+      <c r="L24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3315,10 +2896,10 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="53"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="6"/>
@@ -3352,14 +2933,14 @@
       <c r="K36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="51" t="s">
+      <c r="L36" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="3" t="s">
@@ -3383,14 +2964,14 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="33" t="s">
+      <c r="L37" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3416,14 +2997,14 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="33" t="s">
+      <c r="L38" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3449,14 +3030,14 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="33" t="s">
+      <c r="L39" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3482,14 +3063,14 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="33" t="s">
+      <c r="L40" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3515,14 +3096,14 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="33" t="s">
+      <c r="L41" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3548,14 +3129,14 @@
       <c r="K42" s="6">
         <v>18</v>
       </c>
-      <c r="L42" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="33" t="s">
+      <c r="L42" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3581,14 +3162,14 @@
       <c r="K43" s="6">
         <v>18</v>
       </c>
-      <c r="L43" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="33" t="s">
+      <c r="L43" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3614,14 +3195,14 @@
       <c r="K44" s="6">
         <v>18</v>
       </c>
-      <c r="L44" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="33" t="s">
+      <c r="L44" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3647,14 +3228,14 @@
       <c r="K45" s="6">
         <v>18</v>
       </c>
-      <c r="L45" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="33" t="s">
+      <c r="L45" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="37" t="s">
         <v>144</v>
       </c>
       <c r="T45" s="27"/>
@@ -3683,14 +3264,14 @@
       <c r="K46" s="6">
         <v>18</v>
       </c>
-      <c r="L46" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="33" t="s">
+      <c r="L46" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="37" t="s">
         <v>144</v>
       </c>
       <c r="S46" s="26"/>
@@ -3720,14 +3301,14 @@
       <c r="K47" s="6">
         <v>18</v>
       </c>
-      <c r="L47" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="33" t="s">
+      <c r="L47" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="37" t="s">
         <v>144</v>
       </c>
       <c r="T47" s="9"/>
@@ -3754,14 +3335,14 @@
       <c r="K48" s="6">
         <v>18</v>
       </c>
-      <c r="L48" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="33" t="s">
+      <c r="L48" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="37" t="s">
         <v>144</v>
       </c>
       <c r="T48" s="9"/>
@@ -3788,14 +3369,14 @@
       <c r="K49" s="6">
         <v>18</v>
       </c>
-      <c r="L49" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="33" t="s">
+      <c r="L49" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3821,14 +3402,14 @@
       <c r="K50" s="6">
         <v>18</v>
       </c>
-      <c r="L50" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="33" t="s">
+      <c r="L50" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3854,14 +3435,14 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="33" t="s">
+      <c r="L51" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3956,10 +3537,10 @@
       <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
-      <c r="F62" s="52" t="s">
+      <c r="F62" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G62" s="53"/>
+      <c r="G62" s="31"/>
     </row>
     <row r="63" spans="1:17" ht="18.600000000000001" thickTop="1"/>
     <row r="66" spans="1:17" ht="32.4">
@@ -4019,10 +3600,10 @@
       <c r="G70" s="10"/>
       <c r="H70" s="11"/>
       <c r="I70" s="12"/>
-      <c r="L70" s="52" t="s">
+      <c r="L70" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M70" s="53"/>
+      <c r="M70" s="31"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="6"/>
@@ -4056,14 +3637,14 @@
       <c r="K73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="51" t="s">
+      <c r="L73" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="51"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="32"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="36"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="3" t="s">
@@ -4087,14 +3668,14 @@
       <c r="K74" s="6">
         <v>18</v>
       </c>
-      <c r="L74" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="33" t="s">
+      <c r="L74" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4120,14 +3701,14 @@
       <c r="K75" s="6">
         <v>18</v>
       </c>
-      <c r="L75" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="33" t="s">
+      <c r="L75" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4153,14 +3734,14 @@
       <c r="K76" s="6">
         <v>18</v>
       </c>
-      <c r="L76" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="33" t="s">
+      <c r="L76" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4186,14 +3767,14 @@
       <c r="K77" s="6">
         <v>18</v>
       </c>
-      <c r="L77" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="33" t="s">
+      <c r="L77" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4219,14 +3800,14 @@
       <c r="K78" s="6">
         <v>18</v>
       </c>
-      <c r="L78" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="33" t="s">
+      <c r="L78" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4252,14 +3833,14 @@
       <c r="K79" s="6">
         <v>18</v>
       </c>
-      <c r="L79" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="33" t="s">
+      <c r="L79" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4285,14 +3866,14 @@
       <c r="K80" s="6">
         <v>18</v>
       </c>
-      <c r="L80" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="33" t="s">
+      <c r="L80" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4318,14 +3899,14 @@
       <c r="K81" s="6">
         <v>18</v>
       </c>
-      <c r="L81" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="33" t="s">
+      <c r="L81" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4351,14 +3932,14 @@
       <c r="K82" s="6">
         <v>18</v>
       </c>
-      <c r="L82" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="33" t="s">
+      <c r="L82" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4384,14 +3965,14 @@
       <c r="K83" s="6">
         <v>18</v>
       </c>
-      <c r="L83" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="33" t="s">
+      <c r="L83" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4417,14 +3998,14 @@
       <c r="K84" s="6">
         <v>18</v>
       </c>
-      <c r="L84" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="33" t="s">
+      <c r="L84" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4450,14 +4031,14 @@
       <c r="K85" s="6">
         <v>18</v>
       </c>
-      <c r="L85" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="33" t="s">
+      <c r="L85" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4483,14 +4064,14 @@
       <c r="K86" s="6">
         <v>18</v>
       </c>
-      <c r="L86" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="33" t="s">
+      <c r="L86" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4516,14 +4097,14 @@
       <c r="K87" s="6">
         <v>18</v>
       </c>
-      <c r="L87" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="31"/>
-      <c r="Q87" s="33" t="s">
+      <c r="L87" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4549,14 +4130,14 @@
       <c r="K88" s="6">
         <v>18</v>
       </c>
-      <c r="L88" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="33" t="s">
+      <c r="L88" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4574,186 +4155,302 @@
       </c>
     </row>
     <row r="91" spans="1:17">
-      <c r="B91" s="34"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="36"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="40"/>
     </row>
     <row r="92" spans="1:17" ht="22.2">
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="44"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="50"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="B93" s="37"/>
-      <c r="M93" s="38"/>
+      <c r="B93" s="41"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="43"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="47" t="s">
+      <c r="C94" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="8" t="s">
+      <c r="D94" s="52"/>
+      <c r="E94" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F94" s="48" t="s">
+      <c r="F94" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="M94" s="38"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="43"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C95" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30" t="s">
+      <c r="D95" s="52"/>
+      <c r="E95" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="M95" s="38"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="43"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="B96" s="37"/>
-      <c r="M96" s="38"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="43"/>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="M97" s="38"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="43"/>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="37"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="38"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="43"/>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
     </row>
     <row r="103" spans="2:13">
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
     </row>
     <row r="104" spans="2:13">
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="37"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="38"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="43"/>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="37"/>
-      <c r="M106" s="38"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="43"/>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="37"/>
-      <c r="M107" s="38"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="43"/>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="37"/>
-      <c r="J108" s="50" t="s">
+      <c r="B108" s="41"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="L108" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="M108" s="38"/>
+      <c r="M108" s="43"/>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="39"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="41"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="L33:M33"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="L73:P73"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4762,2298 +4459,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6C2209-4237-4251-ABB0-DCD2FB4B3E75}">
-  <dimension ref="A1:W119"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="32.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="33" thickBot="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="F5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="L5" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="32"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="6">
-        <v>123</v>
-      </c>
-      <c r="K9" s="6">
-        <v>18</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="6">
-        <v>123</v>
-      </c>
-      <c r="K10" s="6">
-        <v>18</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="6">
-        <v>123</v>
-      </c>
-      <c r="K11" s="6">
-        <v>18</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="6">
-        <v>123</v>
-      </c>
-      <c r="K12" s="6">
-        <v>18</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="6">
-        <v>123</v>
-      </c>
-      <c r="K13" s="6">
-        <v>18</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="6">
-        <v>123</v>
-      </c>
-      <c r="K14" s="6">
-        <v>18</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="6">
-        <v>123</v>
-      </c>
-      <c r="K15" s="6">
-        <v>18</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="6">
-        <v>123</v>
-      </c>
-      <c r="K16" s="6">
-        <v>18</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="6">
-        <v>123</v>
-      </c>
-      <c r="K17" s="6">
-        <v>18</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="6">
-        <v>123</v>
-      </c>
-      <c r="K18" s="6">
-        <v>18</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="6">
-        <v>123</v>
-      </c>
-      <c r="K19" s="6">
-        <v>18</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="6">
-        <v>123</v>
-      </c>
-      <c r="K20" s="6">
-        <v>18</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="6">
-        <v>123</v>
-      </c>
-      <c r="K21" s="6">
-        <v>18</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="6">
-        <v>123</v>
-      </c>
-      <c r="K22" s="6">
-        <v>18</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="6">
-        <v>123</v>
-      </c>
-      <c r="K23" s="6">
-        <v>18</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="1:17" ht="22.2">
-      <c r="B27" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="44"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="B28" s="37"/>
-      <c r="M28" s="38"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="B29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="M29" s="38"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="B30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
-      </c>
-      <c r="M30" s="38"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="B31" s="37"/>
-      <c r="M31" s="38"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="B32" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="M32" s="38"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="B33" s="37"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="38"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="B40" s="37"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="38"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="B41" s="37"/>
-      <c r="M41" s="38"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="B42" s="37"/>
-      <c r="M42" s="38"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="B43" s="37"/>
-      <c r="J43" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="L43" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="M43" s="38"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-    </row>
-    <row r="47" spans="1:17" ht="32.4">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="33" thickBot="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A49" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="F49" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:17" ht="18.600000000000001" thickBot="1">
-      <c r="A50" s="6"/>
-    </row>
-    <row r="51" spans="1:17" ht="19.2" thickTop="1" thickBot="1">
-      <c r="A51" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="F51" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="12"/>
-      <c r="L51" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="53"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="6"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="32"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="6">
-        <v>123</v>
-      </c>
-      <c r="K55" s="6">
-        <v>18</v>
-      </c>
-      <c r="L55" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="6">
-        <v>123</v>
-      </c>
-      <c r="K56" s="6">
-        <v>18</v>
-      </c>
-      <c r="L56" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="6">
-        <v>123</v>
-      </c>
-      <c r="K57" s="6">
-        <v>18</v>
-      </c>
-      <c r="L57" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="6">
-        <v>123</v>
-      </c>
-      <c r="K58" s="6">
-        <v>18</v>
-      </c>
-      <c r="L58" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" s="6">
-        <v>123</v>
-      </c>
-      <c r="K59" s="6">
-        <v>18</v>
-      </c>
-      <c r="L59" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="6">
-        <v>123</v>
-      </c>
-      <c r="K60" s="6">
-        <v>18</v>
-      </c>
-      <c r="L60" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="6">
-        <v>123</v>
-      </c>
-      <c r="K61" s="6">
-        <v>18</v>
-      </c>
-      <c r="L61" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="6">
-        <v>123</v>
-      </c>
-      <c r="K62" s="6">
-        <v>18</v>
-      </c>
-      <c r="L62" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="6">
-        <v>123</v>
-      </c>
-      <c r="K63" s="6">
-        <v>18</v>
-      </c>
-      <c r="L63" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="6">
-        <v>123</v>
-      </c>
-      <c r="K64" s="6">
-        <v>18</v>
-      </c>
-      <c r="L64" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="6">
-        <v>123</v>
-      </c>
-      <c r="K65" s="6">
-        <v>18</v>
-      </c>
-      <c r="L65" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="6">
-        <v>123</v>
-      </c>
-      <c r="K66" s="6">
-        <v>18</v>
-      </c>
-      <c r="L66" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="6">
-        <v>123</v>
-      </c>
-      <c r="K67" s="6">
-        <v>18</v>
-      </c>
-      <c r="L67" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="6">
-        <v>123</v>
-      </c>
-      <c r="K68" s="6">
-        <v>18</v>
-      </c>
-      <c r="L68" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="6">
-        <v>123</v>
-      </c>
-      <c r="K69" s="6">
-        <v>18</v>
-      </c>
-      <c r="L69" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="58"/>
-      <c r="M70" s="58"/>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="36"/>
-    </row>
-    <row r="77" spans="1:17" ht="22.2">
-      <c r="B77" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="44"/>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="B78" s="37"/>
-      <c r="M78" s="38"/>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="B79" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="M79" s="38"/>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="B80" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
-      </c>
-      <c r="M80" s="38"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="B81" s="37"/>
-      <c r="M81" s="38"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="B82" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="M82" s="38"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="B83" s="37"/>
-      <c r="C83" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="38"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="B90" s="37"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="38"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="B91" s="37"/>
-      <c r="M91" s="38"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="B92" s="37"/>
-      <c r="M92" s="38"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="B93" s="37"/>
-      <c r="J93" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="L93" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="M93" s="38"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="41"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="32.4">
-      <c r="A97" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:23" ht="33" thickBot="1">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.600000000000001" thickBot="1">
-      <c r="A99" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="F99" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="1:23" ht="18.600000000000001" thickBot="1">
-      <c r="A100" s="6"/>
-    </row>
-    <row r="101" spans="1:23" ht="19.2" thickTop="1" thickBot="1">
-      <c r="A101" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="F101" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="12"/>
-      <c r="L101" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="M101" s="53"/>
-    </row>
-    <row r="102" spans="1:23">
-      <c r="A102" s="6"/>
-    </row>
-    <row r="103" spans="1:23">
-      <c r="A103" s="6"/>
-    </row>
-    <row r="104" spans="1:23">
-      <c r="A104" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J104" s="4"/>
-      <c r="K104" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L104" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
-      <c r="O104" s="51"/>
-      <c r="P104" s="51"/>
-      <c r="Q104" s="32"/>
-    </row>
-    <row r="105" spans="1:23">
-      <c r="A105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I105" s="6">
-        <v>123</v>
-      </c>
-      <c r="K105" s="6">
-        <v>18</v>
-      </c>
-      <c r="L105" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
-      <c r="Q105" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
-      <c r="A106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I106" s="6">
-        <v>123</v>
-      </c>
-      <c r="K106" s="6">
-        <v>18</v>
-      </c>
-      <c r="L106" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
-      <c r="O106" s="31"/>
-      <c r="P106" s="31"/>
-      <c r="Q106" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
-      <c r="A107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I107" s="6">
-        <v>123</v>
-      </c>
-      <c r="K107" s="6">
-        <v>18</v>
-      </c>
-      <c r="L107" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="S107" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="T107" s="56"/>
-      <c r="U107" s="56"/>
-      <c r="V107" s="56"/>
-      <c r="W107" s="56"/>
-    </row>
-    <row r="108" spans="1:23">
-      <c r="A108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I108" s="6">
-        <v>123</v>
-      </c>
-      <c r="K108" s="6">
-        <v>18</v>
-      </c>
-      <c r="L108" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31"/>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="S108" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="T108" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="U108" s="56"/>
-      <c r="V108" s="56"/>
-      <c r="W108" s="56"/>
-    </row>
-    <row r="109" spans="1:23">
-      <c r="A109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I109" s="6">
-        <v>123</v>
-      </c>
-      <c r="K109" s="6">
-        <v>18</v>
-      </c>
-      <c r="L109" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M109" s="31"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-      <c r="P109" s="31"/>
-      <c r="Q109" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="S109" s="56"/>
-      <c r="T109" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="U109" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="V109" s="56"/>
-      <c r="W109" s="56"/>
-    </row>
-    <row r="110" spans="1:23">
-      <c r="A110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I110" s="6">
-        <v>123</v>
-      </c>
-      <c r="K110" s="6">
-        <v>18</v>
-      </c>
-      <c r="L110" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M110" s="31"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
-      <c r="P110" s="31"/>
-      <c r="Q110" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="S110" s="56"/>
-      <c r="T110" s="56"/>
-      <c r="U110" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="V110" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="W110" s="56"/>
-    </row>
-    <row r="111" spans="1:23">
-      <c r="A111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I111" s="6">
-        <v>123</v>
-      </c>
-      <c r="K111" s="6">
-        <v>18</v>
-      </c>
-      <c r="L111" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M111" s="31"/>
-      <c r="N111" s="31"/>
-      <c r="O111" s="31"/>
-      <c r="P111" s="31"/>
-      <c r="Q111" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="S111" s="57"/>
-      <c r="T111" s="57"/>
-      <c r="U111" s="57"/>
-      <c r="V111" s="57"/>
-      <c r="W111" s="57"/>
-    </row>
-    <row r="112" spans="1:23">
-      <c r="A112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I112" s="6">
-        <v>123</v>
-      </c>
-      <c r="K112" s="6">
-        <v>18</v>
-      </c>
-      <c r="L112" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M112" s="31"/>
-      <c r="N112" s="31"/>
-      <c r="O112" s="31"/>
-      <c r="P112" s="31"/>
-      <c r="Q112" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
-      <c r="A113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I113" s="6">
-        <v>123</v>
-      </c>
-      <c r="K113" s="6">
-        <v>18</v>
-      </c>
-      <c r="L113" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M113" s="31"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31"/>
-      <c r="Q113" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
-      <c r="A114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I114" s="6">
-        <v>123</v>
-      </c>
-      <c r="K114" s="6">
-        <v>18</v>
-      </c>
-      <c r="L114" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M114" s="31"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="31"/>
-      <c r="Q114" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17">
-      <c r="A115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I115" s="6">
-        <v>123</v>
-      </c>
-      <c r="K115" s="6">
-        <v>18</v>
-      </c>
-      <c r="L115" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M115" s="31"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
-      <c r="P115" s="31"/>
-      <c r="Q115" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17">
-      <c r="A116" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G116" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="6">
-        <v>123</v>
-      </c>
-      <c r="K116" s="6">
-        <v>18</v>
-      </c>
-      <c r="L116" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M116" s="31"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="31"/>
-      <c r="P116" s="31"/>
-      <c r="Q116" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
-      <c r="A117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I117" s="6">
-        <v>123</v>
-      </c>
-      <c r="K117" s="6">
-        <v>18</v>
-      </c>
-      <c r="L117" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M117" s="31"/>
-      <c r="N117" s="31"/>
-      <c r="O117" s="31"/>
-      <c r="P117" s="31"/>
-      <c r="Q117" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
-      <c r="A118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I118" s="6">
-        <v>123</v>
-      </c>
-      <c r="K118" s="6">
-        <v>18</v>
-      </c>
-      <c r="L118" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M118" s="31"/>
-      <c r="N118" s="31"/>
-      <c r="O118" s="31"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
-      <c r="A119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I119" s="6">
-        <v>123</v>
-      </c>
-      <c r="K119" s="6">
-        <v>18</v>
-      </c>
-      <c r="L119" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M119" s="31"/>
-      <c r="N119" s="31"/>
-      <c r="O119" s="31"/>
-      <c r="P119" s="31"/>
-      <c r="Q119" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="L104:P104"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L54:P54"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580F4BA3-2323-4155-A95C-4DFE4202A119}">
   <dimension ref="A2:V75"/>
   <sheetViews>
@@ -7121,10 +4526,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="6"/>
@@ -7185,13 +4590,13 @@
       <c r="K9" s="6">
         <v>18</v>
       </c>
-      <c r="L9" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
+      <c r="L9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3"/>
@@ -7201,11 +4606,11 @@
       <c r="G10" s="16"/>
       <c r="I10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3"/>
@@ -7215,11 +4620,11 @@
       <c r="G11" s="6"/>
       <c r="I11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3"/>
@@ -7229,11 +4634,11 @@
       <c r="G12" s="16"/>
       <c r="I12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3"/>
@@ -7243,11 +4648,11 @@
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3"/>
@@ -7257,11 +4662,11 @@
       <c r="G14" s="16"/>
       <c r="I14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3"/>
@@ -7271,11 +4676,11 @@
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="32.4">
       <c r="A17" s="2" t="s">
@@ -7335,10 +4740,10 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="53"/>
+      <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="6"/>
@@ -7399,13 +4804,13 @@
       <c r="K24" s="6">
         <v>18</v>
       </c>
-      <c r="L24" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
+      <c r="L24" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16">
       <c r="L25" s="6"/>
@@ -7472,10 +4877,10 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="53"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="6"/>
@@ -7536,13 +4941,13 @@
       <c r="K36" s="6">
         <v>18</v>
       </c>
-      <c r="L36" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
+      <c r="L36" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="3" t="s">
@@ -7566,13 +4971,13 @@
       <c r="K37" s="6">
         <v>18</v>
       </c>
-      <c r="L37" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
+      <c r="L37" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="3" t="s">
@@ -7596,13 +5001,13 @@
       <c r="K38" s="6">
         <v>18</v>
       </c>
-      <c r="L38" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
+      <c r="L38" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="3" t="s">
@@ -7626,13 +5031,13 @@
       <c r="K39" s="6">
         <v>18</v>
       </c>
-      <c r="L39" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
+      <c r="L39" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="3" t="s">
@@ -7656,13 +5061,13 @@
       <c r="K40" s="6">
         <v>18</v>
       </c>
-      <c r="L40" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
+      <c r="L40" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="3" t="s">
@@ -7686,13 +5091,13 @@
       <c r="K41" s="6">
         <v>18</v>
       </c>
-      <c r="L41" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
+      <c r="L41" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
     </row>
     <row r="42" spans="1:16">
       <c r="L42" s="6"/>
@@ -7759,10 +5164,10 @@
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
-      <c r="L48" s="52" t="s">
+      <c r="L48" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M48" s="53"/>
+      <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="6"/>
@@ -7823,13 +5228,13 @@
       <c r="K51" s="6">
         <v>18</v>
       </c>
-      <c r="L51" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
+      <c r="L51" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -7853,13 +5258,13 @@
       <c r="K52" s="6">
         <v>18</v>
       </c>
-      <c r="L52" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
+      <c r="L52" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="3" t="s">
@@ -7883,13 +5288,13 @@
       <c r="K53" s="6">
         <v>18</v>
       </c>
-      <c r="L53" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
+      <c r="L53" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="3" t="s">
@@ -7913,13 +5318,13 @@
       <c r="K54" s="6">
         <v>18</v>
       </c>
-      <c r="L54" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
+      <c r="L54" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="3" t="s">
@@ -7943,13 +5348,13 @@
       <c r="K55" s="6">
         <v>18</v>
       </c>
-      <c r="L55" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
+      <c r="L55" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="3" t="s">
@@ -7973,13 +5378,13 @@
       <c r="K56" s="6">
         <v>18</v>
       </c>
-      <c r="L56" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
+      <c r="L56" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="3" t="s">
@@ -8003,13 +5408,13 @@
       <c r="K57" s="6">
         <v>18</v>
       </c>
-      <c r="L57" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
+      <c r="L57" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="3" t="s">
@@ -8033,13 +5438,13 @@
       <c r="K58" s="6">
         <v>18</v>
       </c>
-      <c r="L58" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
+      <c r="L58" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="3" t="s">
@@ -8063,13 +5468,13 @@
       <c r="K59" s="6">
         <v>18</v>
       </c>
-      <c r="L59" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
+      <c r="L59" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
     </row>
     <row r="61" spans="1:22">
       <c r="V61" s="9"/>
@@ -8147,16 +5552,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
     <mergeCell ref="L41:P41"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L24:P24"/>
@@ -8168,12 +5569,16 @@
     <mergeCell ref="L38:P38"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="L55:P55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8181,7 +5586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B6E8C9-CBD0-4063-A4C0-3BB5FBD26A5F}">
   <dimension ref="A2:H31"/>
   <sheetViews>
@@ -8370,7 +5775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2490CBE8-28D1-4B12-BC37-2E8A81B8ACF4}">
   <dimension ref="A1:M14"/>
   <sheetViews>
